--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>497537.1536522539</v>
+        <v>558271.8411387409</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>335414.390162471</v>
+        <v>337002.2430554247</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10905804.67830213</v>
+        <v>10947499.6809952</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8445301.612181708</v>
+        <v>8424682.894232525</v>
       </c>
     </row>
     <row r="11">
@@ -661,70 +661,70 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>241.0142888776591</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>222.3082294474576</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>241.0142888776591</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>115.4844610174964</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -940,22 +940,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>8.395781178313161</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>148.9413660216818</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>208.6835142066282</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0311969618593</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1328769967189</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9408621947163</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>111.5696315749042</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W7" t="n">
-        <v>137.0815656650981</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="F8" t="n">
-        <v>263.2420339516672</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>140.0390559390607</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052851991</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>144.05760276447</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>263.2420339516672</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1217,16 +1217,16 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>133.0426781022692</v>
+        <v>65.13060206523731</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>159.8350691069755</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>58.85422515450318</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>45.5703142587226</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -1426,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>89.30725745073117</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>16.77840076253211</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>271.0618344696104</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>124.080030896888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
         <v>61.42221998250818</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>140.1425501084457</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>113.9495684430216</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>13.81561135834936</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2004,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>126.5467427872845</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>43.31175043371119</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>40.62363183383273</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="W22" t="n">
-        <v>190.2713935802968</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>87.20030285819837</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>177.011498542528</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
-        <v>163.7438208973729</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1.595867353580288</v>
       </c>
     </row>
     <row r="27">
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>175.7601656566615</v>
       </c>
       <c r="H29" t="n">
-        <v>9.860195023482946</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,22 +2839,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>142.567753130208</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>68.2532749040591</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,16 +3040,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>57.44899573820106</v>
       </c>
       <c r="I32" t="n">
-        <v>80.83194702764899</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3246,13 +3246,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>201.089163843681</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>252.7643836076984</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>26.94389492651069</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>235.5000960026868</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>94.63926978364054</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>205.6740338056752</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.306073596605347</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>25.31590541686235</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>136.1286387281323</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>82.71525932196523</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -3796,16 +3796,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>141.301717014063</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3900,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>125.8721928563317</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>274.4246847141212</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3985,19 +3985,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>15.83775361000842</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>158.1532781090169</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,25 +4024,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4137,13 +4137,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>156.127162662147</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>101.625715293184</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C2" t="n">
         <v>19.28114311021272</v>
@@ -4360,22 +4360,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y2" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="3">
@@ -4418,31 +4418,31 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U3" t="n">
-        <v>487.2836868729568</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V3" t="n">
         <v>262.7299197543128</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>136.2159893136352</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="C5" t="n">
-        <v>136.2159893136352</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="D5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>124.4399474973462</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>306.8231980260855</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>526.3662512024591</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>734.8297429586089</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>886.4882690646268</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>969.7703423957684</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>819.3245181314433</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>608.5330896398996</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T5" t="n">
-        <v>383.2490523046881</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U5" t="n">
-        <v>136.2159893136352</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="V5" t="n">
-        <v>136.2159893136352</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="W5" t="n">
-        <v>136.2159893136352</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="X5" t="n">
-        <v>136.2159893136352</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="Y5" t="n">
-        <v>136.2159893136352</v>
+        <v>100.4273118130612</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>146.1858617037014</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="L6" t="n">
-        <v>377.8476075409624</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M6" t="n">
-        <v>377.8476075409624</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N6" t="n">
-        <v>551.996449470862</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>794.113554508393</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>978.2509294445696</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>776.0965082357626</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U6" t="n">
-        <v>547.8734151097865</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V6" t="n">
-        <v>435.1768175593782</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W6" t="n">
-        <v>435.1768175593782</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X6" t="n">
-        <v>227.3253173538453</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.56501858889139</v>
+        <v>125.0774898247174</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>47.85425064936706</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>88.07040250863014</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>132.7649205860522</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>158.0312465334349</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>432.5524838712646</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C8" t="n">
-        <v>432.5524838712646</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D8" t="n">
-        <v>432.5524838712646</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E8" t="n">
-        <v>432.5524838712646</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F8" t="n">
-        <v>166.6514394756412</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G8" t="n">
-        <v>25.19784761800408</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>25.19784761800408</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>25.19784761800408</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613337</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573685</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>330.2546714142367</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098033</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369341</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>950.1371873885156</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806669</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>907.4554057415475</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>698.453528266888</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>698.453528266888</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>698.453528266888</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>432.5524838712646</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>432.5524838712646</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>432.5524838712646</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>432.5524838712646</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>455.2091552794852</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>455.2091552794852</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>306.2747456182339</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>306.2747456182339</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>159.7401876451189</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>21.05936271613337</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>21.05936271613337</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613337</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>21.05936271613337</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>21.05936271613337</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>261.6628906109961</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>522.2725042231466</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>782.8821178352971</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>1043.295181927789</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>1052.968135806669</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806669</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>1052.968135806669</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>1052.968135806669</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>1052.968135806669</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>824.7478070488735</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>589.5956988171308</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>455.2091552794852</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X9" t="n">
-        <v>455.2091552794852</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y9" t="n">
-        <v>455.2091552794852</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>182.5089274706541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>182.5089274706541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>182.5089274706541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>182.5089274706541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>182.5089274706541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>21.05936271613337</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>21.05936271613337</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05936271613337</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613337</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613337</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360313</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955242</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>150.0877739486502</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716489</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706541</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>182.5089274706541</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>182.5089274706541</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>182.5089274706541</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>182.5089274706541</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>182.5089274706541</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>182.5089274706541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>182.5089274706541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>182.5089274706541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>182.5089274706541</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1837.140060718708</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C11" t="n">
-        <v>1468.177543778296</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D11" t="n">
-        <v>1422.14692331494</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E11" t="n">
         <v>1036.358670716696</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U11" t="n">
-        <v>2520.971603332393</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V11" t="n">
-        <v>2189.908715988822</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W11" t="n">
-        <v>1837.140060718708</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X11" t="n">
-        <v>1837.140060718708</v>
+        <v>1485.946714969783</v>
       </c>
       <c r="Y11" t="n">
-        <v>1837.140060718708</v>
+        <v>1095.807382993971</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
@@ -5135,10 +5135,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5159,10 +5159,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5223,22 +5223,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
-        <v>365.6939024587812</v>
+        <v>637.9196332460999</v>
       </c>
       <c r="U13" t="n">
-        <v>365.6939024587812</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="V13" t="n">
-        <v>365.6939024587812</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="W13" t="n">
-        <v>365.6939024587812</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="X13" t="n">
         <v>348.7460229006679</v>
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1626.94664591678</v>
+        <v>1543.155461091169</v>
       </c>
       <c r="C14" t="n">
-        <v>1626.94664591678</v>
+        <v>1543.155461091169</v>
       </c>
       <c r="D14" t="n">
-        <v>1268.68094731003</v>
+        <v>1184.889762484419</v>
       </c>
       <c r="E14" t="n">
-        <v>882.8926947117852</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F14" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H14" t="n">
         <v>53.94298182036445</v>
@@ -5278,10 +5278,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
         <v>881.2824271224076</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U14" t="n">
-        <v>2478.514423990285</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V14" t="n">
-        <v>2478.514423990285</v>
+        <v>1895.924116361283</v>
       </c>
       <c r="W14" t="n">
-        <v>2125.745768720171</v>
+        <v>1543.155461091169</v>
       </c>
       <c r="X14" t="n">
-        <v>1752.280010459091</v>
+        <v>1543.155461091169</v>
       </c>
       <c r="Y14" t="n">
-        <v>1626.94664591678</v>
+        <v>1543.155461091169</v>
       </c>
     </row>
     <row r="15">
@@ -5339,16 +5339,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F15" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
@@ -5357,31 +5357,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
         <v>2488.762748073963</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
         <v>53.94298182036445</v>
@@ -5442,46 +5442,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>586.570852783762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>586.570852783762</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V16" t="n">
-        <v>586.570852783762</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W16" t="n">
-        <v>586.570852783762</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X16" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y16" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1125.191652989356</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="C17" t="n">
-        <v>1125.191652989356</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D17" t="n">
-        <v>766.9259543826058</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E17" t="n">
-        <v>381.1377017843616</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F17" t="n">
-        <v>381.1377017843616</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
         <v>53.94298182036445</v>
@@ -5521,13 +5521,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5542,25 +5542,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548716</v>
+        <v>2527.019827363845</v>
       </c>
       <c r="T17" t="n">
-        <v>2642.120401548716</v>
+        <v>2527.019827363845</v>
       </c>
       <c r="U17" t="n">
-        <v>2628.165238560484</v>
+        <v>2273.258042001937</v>
       </c>
       <c r="V17" t="n">
-        <v>2628.165238560484</v>
+        <v>1942.195154658366</v>
       </c>
       <c r="W17" t="n">
-        <v>2275.39658329037</v>
+        <v>1589.426499388252</v>
       </c>
       <c r="X17" t="n">
-        <v>1901.93082502929</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="Y17" t="n">
-        <v>1511.791493053478</v>
+        <v>1215.960741127172</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
         <v>2646.935720430048</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>372.9958041606071</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C19" t="n">
-        <v>204.0596212327002</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G19" t="n">
         <v>53.94298182036445</v>
@@ -5700,25 +5700,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>600.3039914920054</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>372.9958041606071</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>372.9958041606071</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V19" t="n">
-        <v>372.9958041606071</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W19" t="n">
-        <v>372.9958041606071</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X19" t="n">
-        <v>372.9958041606071</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y19" t="n">
-        <v>372.9958041606071</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1670.695888779115</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C20" t="n">
-        <v>1626.94664591678</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D20" t="n">
         <v>1268.68094731003</v>
@@ -5752,19 +5752,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5779,25 +5779,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U20" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V20" t="n">
-        <v>2057.295728843236</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W20" t="n">
-        <v>2057.295728843236</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X20" t="n">
-        <v>2057.295728843236</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y20" t="n">
-        <v>2057.295728843236</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="21">
@@ -5807,40 +5807,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I21" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N21" t="n">
         <v>1748.695370517453</v>
@@ -5852,22 +5852,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5916,37 +5916,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U22" t="n">
-        <v>500.820796875036</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V22" t="n">
-        <v>246.1363086691491</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W22" t="n">
         <v>53.94298182036445</v>
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1637.643464250441</v>
+        <v>1725.724578248621</v>
       </c>
       <c r="C23" t="n">
-        <v>1268.68094731003</v>
+        <v>1356.76206130821</v>
       </c>
       <c r="D23" t="n">
         <v>1268.68094731003</v>
@@ -5989,13 +5989,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6016,25 +6016,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2342.172109855092</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V23" t="n">
-        <v>2011.109222511521</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W23" t="n">
-        <v>2011.109222511521</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X23" t="n">
-        <v>1637.643464250441</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="Y23" t="n">
-        <v>1637.643464250441</v>
+        <v>2112.324418312743</v>
       </c>
     </row>
     <row r="24">
@@ -6071,22 +6071,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C25" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
         <v>53.94298182036445</v>
@@ -6153,46 +6153,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V25" t="n">
-        <v>473.4444960005474</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W25" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X25" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y25" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1166.959449965771</v>
+        <v>934.637173372437</v>
       </c>
       <c r="C26" t="n">
-        <v>797.9969330253591</v>
+        <v>565.6746564320254</v>
       </c>
       <c r="D26" t="n">
-        <v>439.7312344186087</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E26" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F26" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6253,25 +6253,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2476.72260266248</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T26" t="n">
-        <v>2258.087935634543</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U26" t="n">
-        <v>2258.087935634543</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V26" t="n">
-        <v>1927.025048290972</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W26" t="n">
-        <v>1927.025048290972</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X26" t="n">
-        <v>1553.559290029893</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y26" t="n">
-        <v>1553.559290029893</v>
+        <v>934.637173372437</v>
       </c>
     </row>
     <row r="27">
@@ -6317,7 +6317,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
         <v>2188.831293537797</v>
@@ -6390,31 +6390,31 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U28" t="n">
         <v>598.0446400632119</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1620.08070321196</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="C29" t="n">
-        <v>1251.118186271549</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="D29" t="n">
-        <v>892.8524876647982</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="E29" t="n">
-        <v>892.8524876647982</v>
+        <v>558.6732226496763</v>
       </c>
       <c r="F29" t="n">
-        <v>481.8665828751907</v>
+        <v>558.6732226496763</v>
       </c>
       <c r="G29" t="n">
-        <v>63.90277477337753</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H29" t="n">
         <v>53.94298182036445</v>
@@ -6463,13 +6463,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6490,25 +6490,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V29" t="n">
-        <v>1993.54646147304</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W29" t="n">
-        <v>1993.54646147304</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X29" t="n">
-        <v>1620.08070321196</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y29" t="n">
-        <v>1620.08070321196</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="30">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>369.8327295799424</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="C31" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D31" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E31" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F31" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
         <v>53.94298182036445</v>
@@ -6627,46 +6627,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S31" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T31" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U31" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V31" t="n">
-        <v>369.8327295799424</v>
+        <v>659.1862822831424</v>
       </c>
       <c r="W31" t="n">
-        <v>369.8327295799424</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="X31" t="n">
-        <v>369.8327295799424</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="Y31" t="n">
-        <v>369.8327295799424</v>
+        <v>369.7691122461817</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1249.712458167646</v>
+        <v>940.9219833362306</v>
       </c>
       <c r="C32" t="n">
-        <v>880.7499412272343</v>
+        <v>940.9219833362306</v>
       </c>
       <c r="D32" t="n">
-        <v>880.7499412272343</v>
+        <v>940.9219833362306</v>
       </c>
       <c r="E32" t="n">
-        <v>880.7499412272343</v>
+        <v>940.9219833362306</v>
       </c>
       <c r="F32" t="n">
-        <v>880.7499412272343</v>
+        <v>529.9360785466231</v>
       </c>
       <c r="G32" t="n">
-        <v>462.7861331254212</v>
+        <v>111.97227044481</v>
       </c>
       <c r="H32" t="n">
-        <v>135.591413161424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
@@ -6703,49 +6703,49 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V32" t="n">
-        <v>2366.086203674652</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W32" t="n">
-        <v>2013.317548404538</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X32" t="n">
-        <v>1639.851790143458</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y32" t="n">
-        <v>1249.712458167646</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="33">
@@ -6770,10 +6770,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036445</v>
@@ -6864,46 +6864,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V34" t="n">
-        <v>473.4444960005474</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="W34" t="n">
-        <v>184.0273259635867</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1194.175505447095</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C35" t="n">
-        <v>825.2129885066831</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D35" t="n">
-        <v>466.9472898999326</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E35" t="n">
-        <v>81.15903730168839</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F35" t="n">
-        <v>81.15903730168839</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>81.15903730168839</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
         <v>53.94298182036445</v>
@@ -6937,13 +6937,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018222</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W35" t="n">
-        <v>2344.380435748108</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X35" t="n">
-        <v>1970.914677487028</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y35" t="n">
-        <v>1580.775345511217</v>
+        <v>1138.210253911481</v>
       </c>
     </row>
     <row r="36">
@@ -6992,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E36" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
         <v>2525.076107152626</v>
@@ -7055,10 +7055,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
         <v>53.94298182036445</v>
@@ -7101,46 +7101,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U37" t="n">
-        <v>490.2500993552354</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V37" t="n">
-        <v>490.2500993552354</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W37" t="n">
-        <v>200.8329293182748</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X37" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y37" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1358.140854479381</v>
+        <v>1738.389234072494</v>
       </c>
       <c r="C38" t="n">
-        <v>1358.140854479381</v>
+        <v>1369.426717132083</v>
       </c>
       <c r="D38" t="n">
-        <v>999.875155872631</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="E38" t="n">
-        <v>999.875155872631</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F38" t="n">
-        <v>588.8892510830235</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7207,19 +7207,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U38" t="n">
-        <v>2465.942913862886</v>
+        <v>2464.623647603688</v>
       </c>
       <c r="V38" t="n">
-        <v>2134.880026519315</v>
+        <v>2464.623647603688</v>
       </c>
       <c r="W38" t="n">
-        <v>2134.880026519315</v>
+        <v>2111.854992333574</v>
       </c>
       <c r="X38" t="n">
-        <v>2134.880026519315</v>
+        <v>1738.389234072494</v>
       </c>
       <c r="Y38" t="n">
-        <v>1744.740694543503</v>
+        <v>1738.389234072494</v>
       </c>
     </row>
     <row r="39">
@@ -7229,40 +7229,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
         <v>1748.695370517453</v>
@@ -7274,22 +7274,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>546.4805193761945</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C40" t="n">
-        <v>377.5443364482876</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D40" t="n">
-        <v>227.4276970359519</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E40" t="n">
-        <v>79.51460345355875</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F40" t="n">
-        <v>79.51460345355875</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G40" t="n">
         <v>53.94298182036445</v>
@@ -7338,46 +7338,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>590.6253087234725</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>590.6253087234725</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>590.6253087234725</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064342</v>
+        <v>590.6253087234725</v>
       </c>
       <c r="W40" t="n">
-        <v>728.1289842064342</v>
+        <v>590.6253087234725</v>
       </c>
       <c r="X40" t="n">
-        <v>728.1289842064342</v>
+        <v>590.6253087234725</v>
       </c>
       <c r="Y40" t="n">
-        <v>728.1289842064342</v>
+        <v>369.8327295799424</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1463.674302457628</v>
+        <v>1738.389234072494</v>
       </c>
       <c r="C41" t="n">
-        <v>1094.711785517216</v>
+        <v>1369.426717132083</v>
       </c>
       <c r="D41" t="n">
         <v>1011.161018525332</v>
@@ -7411,13 +7411,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T41" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U41" t="n">
-        <v>2520.971603332393</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V41" t="n">
-        <v>2189.908715988822</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W41" t="n">
-        <v>1837.140060718708</v>
+        <v>1738.389234072494</v>
       </c>
       <c r="X41" t="n">
-        <v>1463.674302457628</v>
+        <v>1738.389234072494</v>
       </c>
       <c r="Y41" t="n">
-        <v>1463.674302457628</v>
+        <v>1738.389234072494</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
         <v>221.4284102424006</v>
@@ -7502,31 +7502,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>500.1394333084169</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C43" t="n">
-        <v>331.20325038051</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D43" t="n">
-        <v>181.0866109681743</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E43" t="n">
-        <v>181.0866109681743</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F43" t="n">
-        <v>181.0866109681743</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G43" t="n">
         <v>53.94298182036445</v>
@@ -7575,46 +7575,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064342</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="V43" t="n">
-        <v>728.1289842064342</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="W43" t="n">
-        <v>728.1289842064342</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="X43" t="n">
-        <v>500.1394333084169</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y43" t="n">
-        <v>500.1394333084169</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1779.584617183058</v>
+        <v>940.9219833362306</v>
       </c>
       <c r="C44" t="n">
-        <v>1410.622100242646</v>
+        <v>571.9594663958189</v>
       </c>
       <c r="D44" t="n">
-        <v>1052.356401635896</v>
+        <v>213.6937677890684</v>
       </c>
       <c r="E44" t="n">
-        <v>1036.358670716696</v>
+        <v>213.6937677890684</v>
       </c>
       <c r="F44" t="n">
-        <v>625.3727659270879</v>
+        <v>213.6937677890684</v>
       </c>
       <c r="G44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036445</v>
@@ -7654,7 +7654,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7678,22 +7678,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2169.72394915887</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V44" t="n">
-        <v>2169.72394915887</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W44" t="n">
-        <v>2169.72394915887</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X44" t="n">
-        <v>2169.72394915887</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y44" t="n">
-        <v>1779.584617183058</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
@@ -7736,7 +7736,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
         <v>1748.695370517453</v>
@@ -7748,22 +7748,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036445</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E46" t="n">
         <v>53.94298182036445</v>
@@ -7833,25 +7833,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>343.1165921657965</v>
+        <v>625.4767465365513</v>
       </c>
       <c r="U46" t="n">
-        <v>53.94298182036445</v>
+        <v>625.4767465365513</v>
       </c>
       <c r="V46" t="n">
-        <v>53.94298182036445</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036445</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036445</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036445</v>
+        <v>370.7922583306645</v>
       </c>
     </row>
   </sheetData>
@@ -8066,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N3" t="n">
-        <v>231.1529892133072</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>184.6294155606472</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>140.1317786452013</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>305.1943842085481</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>385.2788254813442</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>138.9730561082392</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>122.1609165114201</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>129.8481964236086</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>392.833774309385</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N9" t="n">
-        <v>381.7094952808122</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>134.2926466205235</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.6630807868108</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8783,13 +8783,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9020,13 +9020,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9181,7 +9181,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9479,16 +9479,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.513533492832</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K24" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9892,7 +9892,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714822</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9965,10 +9965,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711643</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10682,7 +10682,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11150,13 +11150,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11384,10 +11384,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -22549,7 +22549,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22600,7 +22600,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22612,7 +22612,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>145.2236497783945</v>
@@ -22673,19 +22673,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>10.49235770196771</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>10.68069428326055</v>
@@ -22789,7 +22789,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>239.1985806031866</v>
+        <v>274.3483346048629</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22798,16 +22798,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.2879682170718</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>339.3235460419765</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>209.9064962068211</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>10.69576364311372</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,22 +22828,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>6.781739002849037</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>61.7948004025077</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22877,16 +22877,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3356148920818</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.1591249337519</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.12455904281175</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,10 +22910,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>99.6672001609758</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.5363898835276</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -22922,16 +22922,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>121.230955574521</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9843543597988</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.1682702466266</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.2512431493756</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>92.89079271141465</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>21.49978743611831</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,28 +22983,28 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.920177260816417</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>85.60728995481479</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>176.9955073465141</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>223.9011423785076</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9172826158254</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3186679929276</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W7" t="n">
-        <v>149.4414326714929</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23029,19 +23029,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>181.5942737834322</v>
       </c>
       <c r="F8" t="n">
-        <v>143.6340117900443</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>275.1711654647706</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>338.5273214908784</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>206.9091621893709</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23065,22 +23065,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>64.51022451846774</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23105,25 +23105,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>87.6923398882896</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,13 +23147,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.0844620270375</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23162,13 +23162,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>118.6523050586504</v>
+        <v>186.5643810956823</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>8.114410708933292</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8582038473137</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022107</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839138</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871606</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,25 +23220,25 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.68702246598912</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366963</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908972</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>323.8796165089774</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>309.1127273619604</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -23314,19 +23314,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23463,16 +23463,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>135.7278480073531</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23481,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>208.9312546265051</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23506,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23551,19 +23551,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>56.6904240005245</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>262.1579077591656</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>84.89255534963857</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23746,10 +23746,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>60.46614436594993</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>237.4085561499399</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23892,19 +23892,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -23940,10 +23940,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>85.59879616273436</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>321.9611413372963</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>314.0594097868502</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24031,7 +24031,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24150,7 +24150,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="W22" t="n">
-        <v>96.25160475629423</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>267.4827387624846</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>74.21266896576134</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>16.63754732114117</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
@@ -24387,7 +24387,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>83.36203824822857</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24463,7 +24463,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>10.67189191159864</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>384.6420713024733</v>
       </c>
     </row>
     <row r="27">
@@ -24624,7 +24624,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>83.36203824822857</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>238.0240043641335</v>
       </c>
       <c r="H29" t="n">
-        <v>314.0625777408742</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24861,7 +24861,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>82.46735232787631</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>183.8843684197689</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24919,7 +24919,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24928,16 +24928,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>266.4737770261561</v>
       </c>
       <c r="I32" t="n">
-        <v>71.09936921721226</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24973,7 +24973,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25098,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25134,13 +25134,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>51.04847948014705</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>96.92615468724708</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>129.9694580557822</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>296.9788778378464</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25201,25 +25201,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25335,7 +25335,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25368,7 +25368,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>50.78177823929096</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>131.0703856053966</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>208.1101362151198</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,19 +25447,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>249.9180939116839</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>141.9938968421885</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25572,7 +25572,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>76.01690022188657</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>271.9677822987177</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -25684,16 +25684,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>207.93925170335</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25788,10 +25788,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>41.43760940271922</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25809,7 +25809,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -25842,7 +25842,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>11.85718952785658</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25873,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>366.0926164622534</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>255.6308919117781</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,19 +25918,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,13 +26025,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,10 +26043,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,22 +26067,22 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>56.01837628787186</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>123.4093901649002</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>485250.2066126674</v>
+        <v>482163.6750662233</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>501254.8875917589</v>
+        <v>482163.6750662233</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>810543.9642182668</v>
+        <v>810543.9642182667</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>810543.9642182665</v>
+        <v>810543.9642182667</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>810543.9642182668</v>
+        <v>810543.9642182667</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>810543.9642182667</v>
+        <v>810543.9642182664</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>810543.9642182665</v>
+        <v>810543.9642182668</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>810543.9642182667</v>
+        <v>810543.9642182665</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141236.5716516326</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="C2" t="n">
-        <v>142222.1657638405</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="D2" t="n">
-        <v>147339.1279972483</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="E2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="F2" t="n">
         <v>245779.7185133938</v>
@@ -26368,13 +26368,13 @@
         <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
-        <v>4491.824968753434</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>22364.98695753593</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>407720.4376835739</v>
+        <v>432846.1740429961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
-        <v>913.25580245714</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4727.563118847505</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>102434.117690635</v>
+        <v>107973.3606740581</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>42017.42535589615</v>
       </c>
       <c r="C4" t="n">
-        <v>42033.93659314635</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="D4" t="n">
-        <v>42100.10620798598</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="E4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="F4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="G4" t="n">
         <v>44802.65617556861</v>
@@ -26438,7 +26438,7 @@
         <v>44802.65617556861</v>
       </c>
       <c r="I4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="J4" t="n">
         <v>44802.6561755686</v>
@@ -26447,7 +26447,7 @@
         <v>44802.6561755686</v>
       </c>
       <c r="L4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="M4" t="n">
         <v>44802.6561755686</v>
@@ -26459,7 +26459,7 @@
         <v>44802.6561755686</v>
       </c>
       <c r="P4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>48577.10433863014</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>50134.40740683338</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-42049.56461961343</v>
+        <v>-31053.35506157705</v>
       </c>
       <c r="C6" t="n">
-        <v>34959.26536751764</v>
+        <v>49716.07646997066</v>
       </c>
       <c r="D6" t="n">
-        <v>20880.59070753577</v>
+        <v>49716.07646997066</v>
       </c>
       <c r="E6" t="n">
-        <v>-262043.2671549773</v>
+        <v>-281707.4311431622</v>
       </c>
       <c r="F6" t="n">
-        <v>145677.1705285965</v>
+        <v>151138.7428998338</v>
       </c>
       <c r="G6" t="n">
-        <v>145677.1705285966</v>
+        <v>151138.7428998339</v>
       </c>
       <c r="H6" t="n">
-        <v>145677.1705285966</v>
+        <v>151138.7428998339</v>
       </c>
       <c r="I6" t="n">
-        <v>145677.1705285966</v>
+        <v>151138.742899834</v>
       </c>
       <c r="J6" t="n">
-        <v>82617.22792949041</v>
+        <v>88078.80030072774</v>
       </c>
       <c r="K6" t="n">
-        <v>144763.9147261395</v>
+        <v>151138.7428998339</v>
       </c>
       <c r="L6" t="n">
-        <v>140949.6074097492</v>
+        <v>151138.742899834</v>
       </c>
       <c r="M6" t="n">
-        <v>43243.05283796159</v>
+        <v>43165.38222577582</v>
       </c>
       <c r="N6" t="n">
-        <v>145677.1705285966</v>
+        <v>151138.7428998339</v>
       </c>
       <c r="O6" t="n">
-        <v>145677.1705285966</v>
+        <v>151138.7428998339</v>
       </c>
       <c r="P6" t="n">
-        <v>145677.1705285966</v>
+        <v>151138.7428998339</v>
       </c>
     </row>
   </sheetData>
@@ -26740,43 +26740,43 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678986</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
         <v>377.7436642170866</v>
@@ -26792,10 +26792,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>263.2420339516672</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26962,13 +26962,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>19.33951979354754</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>354.7302815302968</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>3.548443483483339</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>18.67930159052477</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>411.0452388028884</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>3.548443483483339</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>18.67930159052477</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028884</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>3.548443483483339</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>18.67930159052477</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028884</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01476929806328569</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1512560737906247</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5693933635848223</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.253525711498795</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1.878710098517679</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2.330706004121959</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>2.593359508554916</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>2.635322776677227</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2.488460569060429</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.123843523123063</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.594918036231644</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9277519194678708</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3365553796171231</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.06465260227203316</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.001181543845062855</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.007902271128860838</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07631930274452442</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2720738086033228</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1.276043491891533</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1.715797948395859</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>2.002255276817064</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>2.05524901609789</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.880151324242605</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.508987194773435</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.008717977782306</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4906339916673424</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1467812203102001</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03185169810273293</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.000519886258477687</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006624998659945165</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05890226081296706</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1992317778827147</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4683874052581232</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7697043897645381</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9849566189522114</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.038498653576677</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1.013805476753246</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0.936413446952977</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8012634742900949</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5547532968795902</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2978840306553526</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1154556584646807</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02830681245612934</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0003613635632697367</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367775</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887899</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.56672738103504</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760526</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324521</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>14.59973623455514</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895192</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019349</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841755</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>13.303932450608</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214545037</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679652</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332559</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318495</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294218</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498196</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104837</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.704292963125476</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246607</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750399</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688238</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430047</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418822</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104047</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277523179</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.31869329921068</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605635</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705524055</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467912</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003256610757564604</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994892</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259097</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047555</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.934017658281388</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166792</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.169850171471498</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6.50524192898881</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815848097</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150964</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037132002</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705268</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473157</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750187</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588726</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815398</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31995,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32022,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32095,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32171,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32469,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32496,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32569,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32645,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32706,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32733,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32882,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32943,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32970,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33043,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33119,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33180,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33207,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33280,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33356,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33417,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33444,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33517,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33593,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33654,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33681,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33754,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33830,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33891,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33918,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33991,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34067,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34128,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34155,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34228,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34304,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34383,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34471,16 +34471,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34556,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34786,19 +34786,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N3" t="n">
-        <v>99.8112771299739</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>105.9342716247019</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>184.2255055845852</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>221.7606597741147</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>210.5691835920705</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>153.1904304101191</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>92.68955593933616</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>127.8998415301111</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="L6" t="n">
-        <v>234.0017634719808</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>175.9079211413127</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>185.9973484203803</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>28.57498187926835</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M7" t="n">
-        <v>40.62237561541726</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>45.14597785598184</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
-        <v>25.52154136099265</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194294</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>196.4945358150183</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945117</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455867</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>166.2898937894762</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>103.8696448668211</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>243.0338665604674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>263.2420339516672</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N9" t="n">
-        <v>263.2420339516672</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>263.0434990833256</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>9.770660483716462</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178763</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>46.0891188908294</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507669</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
-        <v>30.45089961919064</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
-        <v>2.29774030202549</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35503,13 +35503,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P12" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35737,16 +35737,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35983,7 +35983,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K21" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
         <v>173.8110948137341</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060961</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36448,16 +36448,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,25 +36594,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116794</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36685,13 +36685,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36928,7 +36928,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
         <v>173.8110948137341</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37089,7 +37089,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37165,7 +37165,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
         <v>173.8110948137341</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343415</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37396,13 +37396,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
         <v>173.8110948137341</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343417</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37633,13 +37633,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
         <v>173.8110948137341</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37870,13 +37870,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q42" t="n">
         <v>173.8110948137341</v>
@@ -38031,10 +38031,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38104,13 +38104,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
